--- a/public/instructivo/Instructivo_Carga_Data_Doctores.xlsx
+++ b/public/instructivo/Instructivo_Carga_Data_Doctores.xlsx
@@ -492,12 +492,6 @@
 4: Divorsiado (a)</t>
   </si>
   <si>
-    <t>Indicador si el Doctor sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Discapacidad del Doctor en texto, debe completarse solo si marcó Si a sufre discapacidad (Valor 1)</t>
   </si>
   <si>
@@ -562,6 +556,12 @@
   <si>
     <t>Error en la Columna IDIOMA:
 El código del Idioma no corresponde a los valores posibles de ser consignados (1: Inglés, 2: Italiano, 3: Francés, 4: Alemán, 5: Quechua, 6: Portugués). Corrija la Columna P, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el Doctor sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1106,7 @@
   <dimension ref="A2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1216,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>30</v>
@@ -1245,7 +1245,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>31</v>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>37</v>
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>61</v>
@@ -1539,7 +1539,7 @@
         <v>46</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1550,7 +1550,7 @@
         <v>94</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>24</v>
@@ -1579,7 +1579,7 @@
         <v>119</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>24</v>
@@ -1608,7 +1608,7 @@
         <v>95</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>24</v>
@@ -1626,7 +1626,7 @@
         <v>56</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1637,7 +1637,7 @@
         <v>97</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>24</v>
@@ -1666,7 +1666,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>24</v>
@@ -1695,7 +1695,7 @@
         <v>102</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>24</v>
@@ -1724,7 +1724,7 @@
         <v>104</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>24</v>
@@ -1753,7 +1753,7 @@
         <v>107</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>24</v>
@@ -1782,7 +1782,7 @@
         <v>110</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>24</v>
@@ -1924,10 +1924,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>24</v>
@@ -1945,7 +1945,7 @@
         <v>79</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1956,7 +1956,7 @@
         <v>116</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>24</v>
@@ -1985,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>21</v>
